--- a/fhir/ig/hpd/StructureDefinition-MINSALPrestadorAdministrativo.xlsx
+++ b/fhir/ig/hpd/StructureDefinition-MINSALPrestadorAdministrativo.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -13761,10 +13761,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>90</v>

--- a/fhir/ig/hpd/StructureDefinition-MINSALPrestadorAdministrativo.xlsx
+++ b/fhir/ig/hpd/StructureDefinition-MINSALPrestadorAdministrativo.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -630,9 +630,6 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>official</t>
   </si>
   <si>
     <t>required</t>
@@ -1328,6 +1325,9 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>official</t>
   </si>
   <si>
     <t>The use of a human name.</t>
@@ -4870,46 +4870,46 @@
         <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4927,7 +4927,7 @@
         <v>132</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4964,19 +4964,19 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -5001,31 +5001,31 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -5040,10 +5040,10 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -5054,10 +5054,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -5166,10 +5166,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5280,10 +5280,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5306,19 +5306,19 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -5367,7 +5367,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -5382,10 +5382,10 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -5396,10 +5396,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5508,10 +5508,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5622,10 +5622,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5651,16 +5651,16 @@
         <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5709,7 +5709,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5724,10 +5724,10 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5767,13 +5767,13 @@
         <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5823,7 +5823,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5838,10 +5838,10 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5852,10 +5852,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5881,14 +5881,14 @@
         <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5937,7 +5937,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5952,10 +5952,10 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5966,10 +5966,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5995,14 +5995,14 @@
         <v>180</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -6051,7 +6051,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -6066,10 +6066,10 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -6080,10 +6080,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6106,19 +6106,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -6167,7 +6167,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -6182,10 +6182,10 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -6196,10 +6196,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6225,16 +6225,16 @@
         <v>180</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -6283,7 +6283,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -6298,10 +6298,10 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -6312,10 +6312,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6341,16 +6341,16 @@
         <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -6363,43 +6363,43 @@
         <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6414,13 +6414,13 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -6428,10 +6428,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6457,13 +6457,13 @@
         <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6477,43 +6477,43 @@
         <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6528,13 +6528,13 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -6542,10 +6542,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6568,13 +6568,13 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6625,7 +6625,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6640,13 +6640,13 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6654,10 +6654,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6680,16 +6680,16 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6739,7 +6739,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6754,13 +6754,13 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6768,13 +6768,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>162</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>78</v>
@@ -6799,10 +6799,10 @@
         <v>164</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6884,7 +6884,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>179</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>186</v>
@@ -7110,7 +7110,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>192</v>
@@ -7173,31 +7173,31 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -7215,7 +7215,7 @@
         <v>132</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -7226,10 +7226,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7252,19 +7252,19 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="N39" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -7289,31 +7289,31 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7328,10 +7328,10 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -7342,10 +7342,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7454,10 +7454,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7568,10 +7568,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7594,19 +7594,19 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7655,7 +7655,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7670,10 +7670,10 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -7684,10 +7684,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7796,10 +7796,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7910,10 +7910,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7939,16 +7939,16 @@
         <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7997,7 +7997,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -8012,10 +8012,10 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -8026,10 +8026,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8055,13 +8055,13 @@
         <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8111,7 +8111,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -8126,10 +8126,10 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -8140,10 +8140,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8169,14 +8169,14 @@
         <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -8225,7 +8225,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -8240,10 +8240,10 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -8254,10 +8254,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8283,14 +8283,14 @@
         <v>180</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -8339,7 +8339,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8354,10 +8354,10 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -8368,10 +8368,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8394,19 +8394,19 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -8455,7 +8455,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8470,10 +8470,10 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -8484,10 +8484,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8513,16 +8513,16 @@
         <v>180</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -8571,7 +8571,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8586,10 +8586,10 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -8600,10 +8600,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8629,16 +8629,16 @@
         <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8651,43 +8651,43 @@
         <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8702,13 +8702,13 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8716,10 +8716,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8745,13 +8745,13 @@
         <v>180</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8765,43 +8765,43 @@
         <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8816,13 +8816,13 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8830,10 +8830,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8856,13 +8856,13 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8913,7 +8913,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8928,13 +8928,13 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8942,10 +8942,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8968,16 +8968,16 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9027,7 +9027,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -9042,13 +9042,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -9056,13 +9056,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>162</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -9087,10 +9087,10 @@
         <v>164</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -9172,7 +9172,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>179</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>186</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>192</v>
@@ -9461,31 +9461,31 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z58" t="s" s="2">
+      <c r="AA58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9503,7 +9503,7 @@
         <v>132</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -9514,10 +9514,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9540,19 +9540,19 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="N59" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9577,31 +9577,31 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9616,10 +9616,10 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -9630,10 +9630,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9742,10 +9742,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9856,10 +9856,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9882,19 +9882,19 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9943,7 +9943,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9958,10 +9958,10 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9972,10 +9972,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10084,10 +10084,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10198,10 +10198,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10227,16 +10227,16 @@
         <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M65" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -10285,7 +10285,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10300,10 +10300,10 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -10314,10 +10314,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10343,13 +10343,13 @@
         <v>180</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10399,7 +10399,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10414,10 +10414,10 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -10428,10 +10428,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10457,14 +10457,14 @@
         <v>109</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -10474,7 +10474,7 @@
         <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>78</v>
@@ -10513,7 +10513,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10528,10 +10528,10 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -10542,10 +10542,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10571,14 +10571,14 @@
         <v>180</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10627,7 +10627,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10642,10 +10642,10 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -10656,10 +10656,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10682,19 +10682,19 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10743,7 +10743,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10758,10 +10758,10 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -10772,10 +10772,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10801,16 +10801,16 @@
         <v>180</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10859,7 +10859,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10874,10 +10874,10 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10888,10 +10888,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10917,16 +10917,16 @@
         <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="O71" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10939,43 +10939,43 @@
         <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10990,13 +10990,13 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -11004,10 +11004,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11033,13 +11033,13 @@
         <v>180</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11053,43 +11053,43 @@
         <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -11104,13 +11104,13 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -11118,10 +11118,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11144,13 +11144,13 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11201,7 +11201,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11216,13 +11216,13 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -11230,10 +11230,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11256,16 +11256,16 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11315,7 +11315,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11330,13 +11330,13 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -11344,13 +11344,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>162</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>78</v>
@@ -11375,10 +11375,10 @@
         <v>164</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11460,7 +11460,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>179</v>
@@ -11572,7 +11572,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>186</v>
@@ -11686,7 +11686,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>192</v>
@@ -11749,31 +11749,31 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y78" t="s" s="2">
+      <c r="Z78" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z78" t="s" s="2">
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF78" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11791,7 +11791,7 @@
         <v>132</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -11802,10 +11802,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11828,19 +11828,19 @@
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="N79" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O79" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11865,31 +11865,31 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y79" t="s" s="2">
+      <c r="Z79" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z79" t="s" s="2">
+      <c r="AA79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11904,10 +11904,10 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11918,10 +11918,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12030,10 +12030,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12144,10 +12144,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12170,19 +12170,19 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -12231,7 +12231,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12246,10 +12246,10 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -12260,10 +12260,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12372,10 +12372,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12486,10 +12486,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12515,16 +12515,16 @@
         <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M85" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -12573,7 +12573,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12588,10 +12588,10 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
@@ -12602,10 +12602,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12631,13 +12631,13 @@
         <v>180</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12687,7 +12687,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12702,10 +12702,10 @@
         <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -12716,10 +12716,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12745,14 +12745,14 @@
         <v>109</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -12762,7 +12762,7 @@
         <v>78</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>78</v>
@@ -12801,7 +12801,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12816,10 +12816,10 @@
         <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -12830,10 +12830,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12859,14 +12859,14 @@
         <v>180</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12915,7 +12915,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12930,10 +12930,10 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
@@ -12944,10 +12944,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12970,19 +12970,19 @@
         <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -13031,7 +13031,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13046,10 +13046,10 @@
         <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
@@ -13060,10 +13060,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13089,16 +13089,16 @@
         <v>180</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -13147,7 +13147,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13162,10 +13162,10 @@
         <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -13176,10 +13176,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13205,16 +13205,16 @@
         <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="O91" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -13227,43 +13227,43 @@
         <v>78</v>
       </c>
       <c r="T91" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13278,13 +13278,13 @@
         <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -13292,10 +13292,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13321,13 +13321,13 @@
         <v>180</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13341,43 +13341,43 @@
         <v>78</v>
       </c>
       <c r="T92" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF92" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13392,13 +13392,13 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL92" t="s" s="2">
+      <c r="AM92" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -13406,10 +13406,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13432,13 +13432,13 @@
         <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13489,7 +13489,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13504,13 +13504,13 @@
         <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AM93" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13518,10 +13518,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13544,16 +13544,16 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13603,7 +13603,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13618,13 +13618,13 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL94" t="s" s="2">
+      <c r="AM94" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13632,10 +13632,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13658,26 +13658,26 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="O95" t="s" s="2">
+      <c r="P95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q95" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="P95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q95" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="R95" t="s" s="2">
         <v>78</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13739,21 +13739,21 @@
         <v>78</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13776,19 +13776,19 @@
         <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13837,7 +13837,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13852,13 +13852,13 @@
         <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL96" t="s" s="2">
+      <c r="AM96" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13866,10 +13866,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13978,10 +13978,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14092,10 +14092,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14121,16 +14121,16 @@
         <v>109</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -14140,22 +14140,22 @@
         <v>78</v>
       </c>
       <c r="S99" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="Y99" t="s" s="2">
         <v>425</v>
@@ -15250,7 +15250,7 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>485</v>
@@ -15330,7 +15330,7 @@
         <v>490</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15739,7 +15739,7 @@
         <v>78</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y113" t="s" s="2">
         <v>505</v>
@@ -15900,7 +15900,7 @@
         <v>519</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>78</v>
@@ -15971,7 +15971,7 @@
         <v>78</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y115" t="s" s="2">
         <v>525</v>
@@ -16164,7 +16164,7 @@
         <v>90</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>536</v>
@@ -16242,7 +16242,7 @@
         <v>490</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
@@ -16883,7 +16883,7 @@
         <v>78</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y123" t="s" s="2">
         <v>569</v>
@@ -17758,7 +17758,7 @@
         <v>78</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>611</v>
@@ -17870,7 +17870,7 @@
         <v>78</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>618</v>
@@ -17984,7 +17984,7 @@
         <v>78</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>624</v>
@@ -18929,31 +18929,31 @@
         <v>78</v>
       </c>
       <c r="X141" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y141" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y141" t="s" s="2">
+      <c r="Z141" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z141" t="s" s="2">
+      <c r="AA141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF141" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -18971,7 +18971,7 @@
         <v>132</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>78</v>
@@ -19008,19 +19008,19 @@
         <v>90</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M142" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="N142" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O142" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>78</v>
@@ -19045,31 +19045,31 @@
         <v>78</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y142" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y142" t="s" s="2">
+      <c r="Z142" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z142" t="s" s="2">
+      <c r="AA142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF142" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -19084,10 +19084,10 @@
         <v>101</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>78</v>
@@ -19136,7 +19136,7 @@
         <v>647</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>78</v>
@@ -19149,43 +19149,43 @@
         <v>78</v>
       </c>
       <c r="T143" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF143" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19200,13 +19200,13 @@
         <v>101</v>
       </c>
       <c r="AK143" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL143" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL143" t="s" s="2">
+      <c r="AM143" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>78</v>
@@ -19249,7 +19249,7 @@
         <v>650</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19263,43 +19263,43 @@
         <v>651</v>
       </c>
       <c r="T144" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF144" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19314,13 +19314,13 @@
         <v>101</v>
       </c>
       <c r="AK144" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL144" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL144" t="s" s="2">
+      <c r="AM144" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>78</v>
@@ -19354,13 +19354,13 @@
         <v>90</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19411,7 +19411,7 @@
         <v>78</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -19426,13 +19426,13 @@
         <v>101</v>
       </c>
       <c r="AK145" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL145" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL145" t="s" s="2">
+      <c r="AM145" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>78</v>
@@ -19466,16 +19466,16 @@
         <v>90</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19525,7 +19525,7 @@
         <v>78</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -19540,13 +19540,13 @@
         <v>101</v>
       </c>
       <c r="AK146" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL146" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL146" t="s" s="2">
+      <c r="AM146" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>78</v>
@@ -19580,7 +19580,7 @@
         <v>78</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L147" t="s" s="2">
         <v>611</v>
@@ -19918,19 +19918,19 @@
         <v>90</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N150" t="s" s="2">
+      <c r="O150" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>78</v>
@@ -19979,7 +19979,7 @@
         <v>78</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -19994,10 +19994,10 @@
         <v>101</v>
       </c>
       <c r="AK150" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL150" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>78</v>
@@ -20269,10 +20269,10 @@
         <v>670</v>
       </c>
       <c r="N153" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O153" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>78</v>
@@ -20321,7 +20321,7 @@
         <v>78</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20336,10 +20336,10 @@
         <v>101</v>
       </c>
       <c r="AK153" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL153" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>78</v>
@@ -20379,13 +20379,13 @@
         <v>180</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -20435,7 +20435,7 @@
         <v>78</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -20450,10 +20450,10 @@
         <v>101</v>
       </c>
       <c r="AK154" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL154" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>78</v>
@@ -20500,7 +20500,7 @@
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>78</v>
@@ -20549,7 +20549,7 @@
         <v>78</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -20564,10 +20564,10 @@
         <v>101</v>
       </c>
       <c r="AK155" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL155" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>78</v>
@@ -20614,7 +20614,7 @@
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>78</v>
@@ -20663,7 +20663,7 @@
         <v>78</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>79</v>
@@ -20678,10 +20678,10 @@
         <v>101</v>
       </c>
       <c r="AK156" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL156" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>78</v>
@@ -20718,19 +20718,19 @@
         <v>90</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>78</v>
@@ -20779,7 +20779,7 @@
         <v>78</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
@@ -20794,10 +20794,10 @@
         <v>101</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL157" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>78</v>
@@ -20840,13 +20840,13 @@
         <v>683</v>
       </c>
       <c r="M158" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>78</v>
@@ -20895,7 +20895,7 @@
         <v>78</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -20910,10 +20910,10 @@
         <v>101</v>
       </c>
       <c r="AK158" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL158" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>78</v>
@@ -20950,7 +20950,7 @@
         <v>78</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>618</v>
@@ -21064,7 +21064,7 @@
         <v>78</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>686</v>
@@ -21551,7 +21551,7 @@
         <v>78</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y164" t="s" s="2">
         <v>703</v>
@@ -22691,31 +22691,31 @@
         <v>78</v>
       </c>
       <c r="X174" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y174" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y174" t="s" s="2">
+      <c r="Z174" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z174" t="s" s="2">
+      <c r="AA174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF174" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>79</v>
@@ -22733,7 +22733,7 @@
         <v>132</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>78</v>
@@ -22770,19 +22770,19 @@
         <v>90</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M175" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="N175" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O175" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>78</v>
@@ -22807,31 +22807,31 @@
         <v>78</v>
       </c>
       <c r="X175" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y175" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y175" t="s" s="2">
+      <c r="Z175" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z175" t="s" s="2">
+      <c r="AA175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF175" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>79</v>
@@ -22846,10 +22846,10 @@
         <v>101</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>78</v>
@@ -22898,7 +22898,7 @@
         <v>647</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>78</v>
@@ -22911,43 +22911,43 @@
         <v>78</v>
       </c>
       <c r="T176" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF176" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>79</v>
@@ -22962,13 +22962,13 @@
         <v>101</v>
       </c>
       <c r="AK176" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL176" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL176" t="s" s="2">
+      <c r="AM176" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM176" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>78</v>
@@ -23011,7 +23011,7 @@
         <v>733</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -23025,43 +23025,43 @@
         <v>734</v>
       </c>
       <c r="T177" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF177" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>79</v>
@@ -23076,13 +23076,13 @@
         <v>101</v>
       </c>
       <c r="AK177" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL177" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL177" t="s" s="2">
+      <c r="AM177" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM177" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>78</v>
@@ -23116,13 +23116,13 @@
         <v>90</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -23173,7 +23173,7 @@
         <v>78</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>79</v>
@@ -23188,13 +23188,13 @@
         <v>101</v>
       </c>
       <c r="AK178" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL178" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL178" t="s" s="2">
+      <c r="AM178" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>78</v>
@@ -23228,16 +23228,16 @@
         <v>90</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="M179" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" t="s" s="2">
@@ -23287,7 +23287,7 @@
         <v>78</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>79</v>
@@ -23302,13 +23302,13 @@
         <v>101</v>
       </c>
       <c r="AK179" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL179" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL179" t="s" s="2">
+      <c r="AM179" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM179" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>78</v>
@@ -23342,7 +23342,7 @@
         <v>78</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L180" t="s" s="2">
         <v>611</v>
@@ -23680,19 +23680,19 @@
         <v>90</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L183" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L183" t="s" s="2">
+      <c r="M183" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M183" t="s" s="2">
+      <c r="N183" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N183" t="s" s="2">
+      <c r="O183" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>78</v>
@@ -23741,7 +23741,7 @@
         <v>78</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>79</v>
@@ -23756,10 +23756,10 @@
         <v>101</v>
       </c>
       <c r="AK183" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL183" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL183" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>78</v>
@@ -24031,10 +24031,10 @@
         <v>745</v>
       </c>
       <c r="N186" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O186" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>78</v>
@@ -24083,7 +24083,7 @@
         <v>78</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>79</v>
@@ -24098,10 +24098,10 @@
         <v>101</v>
       </c>
       <c r="AK186" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL186" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL186" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>78</v>
@@ -24141,13 +24141,13 @@
         <v>180</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
@@ -24197,7 +24197,7 @@
         <v>78</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>79</v>
@@ -24212,10 +24212,10 @@
         <v>101</v>
       </c>
       <c r="AK187" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL187" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AL187" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>78</v>
@@ -24255,14 +24255,14 @@
         <v>109</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>78</v>
@@ -24311,7 +24311,7 @@
         <v>78</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -24326,10 +24326,10 @@
         <v>101</v>
       </c>
       <c r="AK188" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL188" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>78</v>
@@ -24376,7 +24376,7 @@
       </c>
       <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P189" t="s" s="2">
         <v>78</v>
@@ -24425,7 +24425,7 @@
         <v>78</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>79</v>
@@ -24440,10 +24440,10 @@
         <v>101</v>
       </c>
       <c r="AK189" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL189" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>78</v>
@@ -24480,19 +24480,19 @@
         <v>90</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L190" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L190" t="s" s="2">
+      <c r="M190" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M190" t="s" s="2">
+      <c r="N190" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N190" t="s" s="2">
+      <c r="O190" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>78</v>
@@ -24541,7 +24541,7 @@
         <v>78</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>79</v>
@@ -24556,10 +24556,10 @@
         <v>101</v>
       </c>
       <c r="AK190" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL190" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL190" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>78</v>
@@ -24602,13 +24602,13 @@
         <v>753</v>
       </c>
       <c r="M191" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N191" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N191" t="s" s="2">
+      <c r="O191" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>78</v>
@@ -24657,7 +24657,7 @@
         <v>78</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>79</v>
@@ -24672,10 +24672,10 @@
         <v>101</v>
       </c>
       <c r="AK191" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL191" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL191" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>78</v>
@@ -24712,7 +24712,7 @@
         <v>78</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L192" t="s" s="2">
         <v>618</v>
@@ -24826,7 +24826,7 @@
         <v>78</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L193" t="s" s="2">
         <v>686</v>
@@ -25313,7 +25313,7 @@
         <v>78</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y197" t="s" s="2">
         <v>703</v>
@@ -26453,31 +26453,31 @@
         <v>78</v>
       </c>
       <c r="X207" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y207" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y207" t="s" s="2">
+      <c r="Z207" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z207" t="s" s="2">
+      <c r="AA207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF207" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AA207" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB207" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC207" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD207" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE207" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF207" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -26495,7 +26495,7 @@
         <v>132</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>78</v>
@@ -26532,19 +26532,19 @@
         <v>90</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L208" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M208" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="N208" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O208" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O208" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>78</v>
@@ -26569,31 +26569,31 @@
         <v>78</v>
       </c>
       <c r="X208" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y208" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y208" t="s" s="2">
+      <c r="Z208" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z208" t="s" s="2">
+      <c r="AA208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF208" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>79</v>
@@ -26608,10 +26608,10 @@
         <v>101</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>78</v>
@@ -26660,7 +26660,7 @@
         <v>647</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>78</v>
@@ -26673,43 +26673,43 @@
         <v>78</v>
       </c>
       <c r="T209" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="U209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF209" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="U209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE209" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF209" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>79</v>
@@ -26724,13 +26724,13 @@
         <v>101</v>
       </c>
       <c r="AK209" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL209" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL209" t="s" s="2">
+      <c r="AM209" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM209" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>78</v>
@@ -26773,7 +26773,7 @@
         <v>776</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -26787,43 +26787,43 @@
         <v>777</v>
       </c>
       <c r="T210" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF210" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="U210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF210" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>79</v>
@@ -26838,13 +26838,13 @@
         <v>101</v>
       </c>
       <c r="AK210" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL210" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL210" t="s" s="2">
+      <c r="AM210" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM210" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>78</v>
@@ -26878,13 +26878,13 @@
         <v>90</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L211" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L211" t="s" s="2">
+      <c r="M211" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M211" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -26935,7 +26935,7 @@
         <v>78</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>79</v>
@@ -26950,13 +26950,13 @@
         <v>101</v>
       </c>
       <c r="AK211" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL211" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL211" t="s" s="2">
+      <c r="AM211" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM211" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>78</v>
@@ -26990,16 +26990,16 @@
         <v>90</v>
       </c>
       <c r="K212" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L212" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L212" t="s" s="2">
+      <c r="M212" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
@@ -27049,7 +27049,7 @@
         <v>78</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>79</v>
@@ -27064,13 +27064,13 @@
         <v>101</v>
       </c>
       <c r="AK212" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL212" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL212" t="s" s="2">
+      <c r="AM212" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM212" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>78</v>
@@ -27104,7 +27104,7 @@
         <v>78</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L213" t="s" s="2">
         <v>611</v>
@@ -27442,19 +27442,19 @@
         <v>90</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L216" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L216" t="s" s="2">
+      <c r="M216" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N216" t="s" s="2">
+      <c r="O216" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>78</v>
@@ -27503,7 +27503,7 @@
         <v>78</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>79</v>
@@ -27518,10 +27518,10 @@
         <v>101</v>
       </c>
       <c r="AK216" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL216" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL216" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>78</v>
@@ -27793,10 +27793,10 @@
         <v>787</v>
       </c>
       <c r="N219" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O219" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>78</v>
@@ -27845,7 +27845,7 @@
         <v>78</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>79</v>
@@ -27860,10 +27860,10 @@
         <v>101</v>
       </c>
       <c r="AK219" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL219" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL219" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>78</v>
@@ -27903,13 +27903,13 @@
         <v>180</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M220" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
@@ -27959,7 +27959,7 @@
         <v>78</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>79</v>
@@ -27974,10 +27974,10 @@
         <v>101</v>
       </c>
       <c r="AK220" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL220" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AL220" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AM220" t="s" s="2">
         <v>78</v>
@@ -28017,14 +28017,14 @@
         <v>109</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>78</v>
@@ -28073,7 +28073,7 @@
         <v>78</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>79</v>
@@ -28088,10 +28088,10 @@
         <v>101</v>
       </c>
       <c r="AK221" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL221" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL221" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>78</v>
@@ -28138,7 +28138,7 @@
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>78</v>
@@ -28187,7 +28187,7 @@
         <v>78</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>79</v>
@@ -28202,10 +28202,10 @@
         <v>101</v>
       </c>
       <c r="AK222" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL222" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL222" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>78</v>
@@ -28242,19 +28242,19 @@
         <v>90</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L223" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L223" t="s" s="2">
+      <c r="M223" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M223" t="s" s="2">
+      <c r="N223" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N223" t="s" s="2">
+      <c r="O223" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>78</v>
@@ -28303,7 +28303,7 @@
         <v>78</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>79</v>
@@ -28318,10 +28318,10 @@
         <v>101</v>
       </c>
       <c r="AK223" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL223" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL223" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>78</v>
@@ -28364,13 +28364,13 @@
         <v>795</v>
       </c>
       <c r="M224" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N224" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N224" t="s" s="2">
+      <c r="O224" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>78</v>
@@ -28419,7 +28419,7 @@
         <v>78</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>79</v>
@@ -28434,10 +28434,10 @@
         <v>101</v>
       </c>
       <c r="AK224" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL224" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL224" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>78</v>
@@ -28474,7 +28474,7 @@
         <v>78</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L225" t="s" s="2">
         <v>618</v>
@@ -28588,7 +28588,7 @@
         <v>78</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L226" t="s" s="2">
         <v>686</v>
@@ -29075,7 +29075,7 @@
         <v>78</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y230" t="s" s="2">
         <v>703</v>
@@ -29382,7 +29382,7 @@
         <v>78</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L233" t="s" s="2">
         <v>805</v>
